--- a/data/inst_1.xlsx
+++ b/data/inst_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/marta_sierra_sanz_alumnos_upm_es/Documents/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77DD4E4A-E0CE-42C5-8624-D47FAFE7D4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EB7EC2-0030-47B1-9851-33FEFEFE263E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
   <si>
     <t>origin</t>
   </si>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +817,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1542,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,10 +1569,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1583,7 +1583,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>15</v>
@@ -1600,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1608,365 +1608,43 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>450</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>38</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>103</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>108</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>38</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>31</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>24</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>322</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>218</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>823</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>240</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>220</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>374</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>212</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>176</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <v>198</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30">
-        <v>488</v>
-      </c>
-      <c r="D30">
         <v>0</v>
       </c>
     </row>

--- a/data/inst_1.xlsx
+++ b/data/inst_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/alvaro_garcia_upm_es/Documents/investigacion/flexible_vrp/datos_ejecucion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EB7EC2-0030-47B1-9851-33FEFEFE263E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{04786123-E1F7-409B-9F45-F131E44B173D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E48E853-ECEA-4A99-9388-D1FBD1A0CD1C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>origin</t>
   </si>
@@ -817,7 +817,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1542,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,7 +1572,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1580,13 +1580,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1594,57 +1594,29 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>75</v>
+        <v>450</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>450</v>
+        <v>158</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>158</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>250</v>
-      </c>
-      <c r="D7">
         <v>0</v>
       </c>
     </row>

--- a/data/inst_1.xlsx
+++ b/data/inst_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/alvaro_garcia_upm_es/Documents/investigacion/flexible_vrp/datos_ejecucion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{04786123-E1F7-409B-9F45-F131E44B173D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E48E853-ECEA-4A99-9388-D1FBD1A0CD1C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0986C463-4F68-4EB6-A80E-D8C98FB78608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="3870" yWindow="645" windowWidth="15375" windowHeight="8850" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
   <si>
     <t>origin</t>
   </si>
@@ -788,7 +788,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +817,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1542,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D7" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,29 +1594,57 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4">
-        <v>450</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5">
+        <v>450</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>158</v>
       </c>
-      <c r="D5">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
     </row>

--- a/data/inst_1.xlsx
+++ b/data/inst_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/alvaro_garcia_upm_es/Documents/investigacion/flexible_vrp/datos_ejecucion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0986C463-4F68-4EB6-A80E-D8C98FB78608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BA891DD-2597-40A8-8843-A46F47FB50D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="645" windowWidth="15375" windowHeight="8850" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>origin</t>
   </si>
@@ -788,7 +788,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +817,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1542,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,57 +1594,29 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>450</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>450</v>
+        <v>158</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>158</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7">
         <v>0</v>
       </c>
     </row>

--- a/data/inst_1.xlsx
+++ b/data/inst_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/alvaro_garcia_upm_es/Documents/investigacion/flexible_vrp/datos_ejecucion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BA891DD-2597-40A8-8843-A46F47FB50D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4324A9D1-F7D3-42B6-A01E-CF3067E8C157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="10275" windowHeight="7875" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -166,10 +166,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +820,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1544,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,13 +1557,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1572,7 +1575,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1586,7 +1589,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1600,7 +1603,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1614,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>0</v>

--- a/data/inst_1.xlsx
+++ b/data/inst_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vrp_basic_mip\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4324A9D1-F7D3-42B6-A01E-CF3067E8C157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D397D4-7173-48AC-AA64-196E6A3627D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="10275" windowHeight="7875" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="35">
   <si>
     <t>origin</t>
   </si>
@@ -125,6 +125,27 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>no_req_total</t>
+  </si>
+  <si>
+    <t>no_opt_total</t>
   </si>
 </sst>
 </file>
@@ -171,7 +192,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,18 +809,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -807,7 +828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -815,7 +836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -823,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -831,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -839,7 +860,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -847,7 +868,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -855,7 +876,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -863,7 +884,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -871,7 +892,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -879,7 +900,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -888,16 +909,35 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>4</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <f>SUM(comp_quantity_inst1!C2:C3)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <f>SUM(comp_quantity_inst1!C4:C5)</f>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -909,9 +949,9 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -922,7 +962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -933,7 +973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -944,7 +984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -955,7 +995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -966,7 +1006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -977,7 +1017,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -988,7 +1028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -999,7 +1039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1010,7 +1050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1021,7 +1061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1032,7 +1072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1043,7 +1083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1054,7 +1094,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1065,7 +1105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1076,7 +1116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1087,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1098,7 +1138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1109,7 +1149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1120,7 +1160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1131,7 +1171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1142,7 +1182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1153,7 +1193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +1204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1175,7 +1215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1186,7 +1226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1197,7 +1237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1208,7 +1248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1219,7 +1259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1230,7 +1270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1241,7 +1281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1252,7 +1292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1263,7 +1303,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1274,7 +1314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1285,7 +1325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1296,7 +1336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1307,7 +1347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1318,7 +1358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1329,7 +1369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1340,7 +1380,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1351,7 +1391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1362,7 +1402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1373,7 +1413,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1384,7 +1424,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1395,7 +1435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1406,7 +1446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1417,7 +1457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1428,7 +1468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1439,7 +1479,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1450,7 +1490,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1472,7 +1512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1483,7 +1523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1494,7 +1534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1505,7 +1545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1516,7 +1556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1527,7 +1567,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1545,16 +1585,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1566,61 +1606,76 @@
       <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
         <v>12</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>19</v>
-      </c>
-      <c r="D3">
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
         <v>50</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
         <v>58</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/inst_1.xlsx
+++ b/data/inst_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vrp_basic_mip\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D397D4-7173-48AC-AA64-196E6A3627D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4324A9D1-F7D3-42B6-A01E-CF3067E8C157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="10275" windowHeight="7875" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>origin</t>
   </si>
@@ -125,27 +125,6 @@
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>no_req_total</t>
-  </si>
-  <si>
-    <t>no_opt_total</t>
   </si>
 </sst>
 </file>
@@ -192,7 +171,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,18 +788,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -828,7 +807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -836,7 +815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -844,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -852,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -860,7 +839,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -868,7 +847,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -876,7 +855,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -884,7 +863,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -892,7 +871,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -900,7 +879,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -909,35 +888,16 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13">
-        <f>SUM(comp_quantity_inst1!C2:C3)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14">
-        <f>SUM(comp_quantity_inst1!C4:C5)</f>
-        <v>108</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -949,9 +909,9 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -962,7 +922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -973,7 +933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -984,7 +944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -995,7 +955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1006,7 +966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1017,7 +977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1028,7 +988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1039,7 +999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1050,7 +1010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1061,7 +1021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1072,7 +1032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1083,7 +1043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1094,7 +1054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1105,7 +1065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1116,7 +1076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1127,7 +1087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1138,7 +1098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1149,7 +1109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1160,7 +1120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1171,7 +1131,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1182,7 +1142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1193,7 +1153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1204,7 +1164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1215,7 +1175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1226,7 +1186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1237,7 +1197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1248,7 +1208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1259,7 +1219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1270,7 +1230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1281,7 +1241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1292,7 +1252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1303,7 +1263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1314,7 +1274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1325,7 +1285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1336,7 +1296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1347,7 +1307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1358,7 +1318,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1369,7 +1329,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1380,7 +1340,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1391,7 +1351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1402,7 +1362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1413,7 +1373,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1424,7 +1384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1435,7 +1395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1446,7 +1406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1457,7 +1417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1468,7 +1428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1479,7 +1439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1490,7 +1450,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1501,7 +1461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1512,7 +1472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1523,7 +1483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1534,7 +1494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1545,7 +1505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1556,7 +1516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1567,7 +1527,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1585,16 +1545,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1606,76 +1566,61 @@
       <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>12</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3">
-        <v>29</v>
-      </c>
-      <c r="D3" s="3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
         <v>50</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>58</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/inst_1.xlsx
+++ b/data/inst_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4324A9D1-F7D3-42B6-A01E-CF3067E8C157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0E02A0-549B-498B-9E8F-9A94E01236B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="10275" windowHeight="7875" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="30">
   <si>
     <t>origin</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>no_req_total</t>
+  </si>
+  <si>
+    <t>no_opt_total</t>
   </si>
 </sst>
 </file>
@@ -788,18 +794,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A13" sqref="A13:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -807,7 +813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -815,7 +821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -823,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -831,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -839,7 +845,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -847,7 +853,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -855,7 +861,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -863,7 +869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -871,7 +877,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -879,7 +885,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -888,12 +894,28 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -909,9 +931,9 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -922,7 +944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -933,7 +955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -944,7 +966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -955,7 +977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -966,7 +988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -977,7 +999,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -988,7 +1010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -999,7 +1021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1010,7 +1032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1021,7 +1043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1032,7 +1054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1043,7 +1065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1054,7 +1076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1065,7 +1087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1076,7 +1098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1087,7 +1109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1098,7 +1120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1109,7 +1131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1120,7 +1142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1131,7 +1153,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1142,7 +1164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1153,7 +1175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +1186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1175,7 +1197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1186,7 +1208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1197,7 +1219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1208,7 +1230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1219,7 +1241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1230,7 +1252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1241,7 +1263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1252,7 +1274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1263,7 +1285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1274,7 +1296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1285,7 +1307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1296,7 +1318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1307,7 +1329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1318,7 +1340,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1329,7 +1351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1340,7 +1362,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1351,7 +1373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1362,7 +1384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1373,7 +1395,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1384,7 +1406,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1395,7 +1417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1406,7 +1428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1428,7 +1450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1439,7 +1461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1450,7 +1472,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1472,7 +1494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1483,7 +1505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1494,7 +1516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1505,7 +1527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1516,7 +1538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1527,7 +1549,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1551,9 +1573,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1567,7 +1589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1581,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1595,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1609,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>

--- a/data/inst_1.xlsx
+++ b/data/inst_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta_sierra\PycharmProjects\Flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0E02A0-549B-498B-9E8F-9A94E01236B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BDA322-FEB2-4383-802F-5980CCF15D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="3960" yWindow="1470" windowWidth="15375" windowHeight="12150" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -25,23 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="32">
   <si>
     <t>origin</t>
   </si>
@@ -131,6 +120,12 @@
   </si>
   <si>
     <t>no_opt_total</t>
+  </si>
+  <si>
+    <t>inst_1</t>
+  </si>
+  <si>
+    <t>inst_name</t>
   </si>
 </sst>
 </file>
@@ -794,18 +789,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -813,7 +808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -821,7 +816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -829,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -837,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -845,7 +840,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -853,7 +848,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -861,7 +856,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -869,7 +864,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -877,7 +872,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -885,7 +880,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -894,7 +889,7 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -902,7 +897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -910,12 +905,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
       <c r="B14">
         <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -931,9 +934,9 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -944,7 +947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -955,7 +958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -966,7 +969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -977,7 +980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -988,7 +991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +1024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1043,7 +1046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1054,7 +1057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1065,7 +1068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1076,7 +1079,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1087,7 +1090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1109,7 +1112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1142,7 +1145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1175,7 +1178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1230,7 +1233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1274,7 +1277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1285,7 +1288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1296,7 +1299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1307,7 +1310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1329,7 +1332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1340,7 +1343,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1351,7 +1354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1384,7 +1387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1450,7 +1453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1516,7 +1519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1538,7 +1541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1549,7 +1552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1573,9 +1576,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1589,7 +1592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1603,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1617,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
